--- a/TP_RR_Équipe_2.xlsx
+++ b/TP_RR_Équipe_2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmetivier-dionne/Desktop/TP-RR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-5-A-2021\ACT-4101-Régimes-de-retraite\TP\TP-RR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D53F32-6680-F941-988F-398D9097C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17356D4-E8EC-400F-BA6A-2508FB303E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{27DEC0F5-7723-43A8-AA03-5409A6FDCC87}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{27DEC0F5-7723-43A8-AA03-5409A6FDCC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Table de mortalité H" sheetId="1" r:id="rId1"/>
     <sheet name="Table de mortalité F" sheetId="2" r:id="rId2"/>
     <sheet name="Phase d'accumulation" sheetId="3" r:id="rId3"/>
+    <sheet name="Section 1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
   <si>
     <t>Année</t>
   </si>
@@ -85,15 +86,125 @@
   <si>
     <t>Augmentation du salaire</t>
   </si>
+  <si>
+    <t>Rendement de la caisse - avant retraite</t>
+  </si>
+  <si>
+    <t>Rendement de la caisse - après retraite - 0-5 ans</t>
+  </si>
+  <si>
+    <t>Rendement de la caisse - après retraite -  ultime</t>
+  </si>
+  <si>
+    <t>Rendement de la caisse - après retraite - 5-15 ans</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date (AAAA)</t>
+  </si>
+  <si>
+    <t>Date (MM)</t>
+  </si>
+  <si>
+    <t>Date (JJ)</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Conjoint?</t>
+  </si>
+  <si>
+    <t>Montant rente</t>
+  </si>
+  <si>
+    <t>Nb paiement par année</t>
+  </si>
+  <si>
+    <t>Taux d'actualisation 0-5 ans</t>
+  </si>
+  <si>
+    <t>Taux d'actualisation 10-15 ans</t>
+  </si>
+  <si>
+    <t>Taux d'actualisation ultime</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Viagère</t>
+  </si>
+  <si>
+    <t>V.A.</t>
+  </si>
+  <si>
+    <t>Table de mortalité</t>
+  </si>
+  <si>
+    <t>Échelle d'amélioration</t>
+  </si>
+  <si>
+    <t>CPM-2014 Mixte</t>
+  </si>
+  <si>
+    <t>CPM-B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CPM-2014 Privée</t>
+  </si>
+  <si>
+    <t>Garantie 15 ans 100%</t>
+  </si>
+  <si>
+    <t>Âge conjoint</t>
+  </si>
+  <si>
+    <t>Rente</t>
+  </si>
+  <si>
+    <t>Sexe conjoint</t>
+  </si>
+  <si>
+    <t>JLS 60%</t>
+  </si>
+  <si>
+    <t>JLS 60% garantie 5 ans 100%</t>
+  </si>
+  <si>
+    <t>JLS 60% garantie 5 ans 60%</t>
+  </si>
+  <si>
+    <t>Voir annexe</t>
+  </si>
+  <si>
+    <t>Indexation</t>
+  </si>
+  <si>
+    <t>MI-2017</t>
+  </si>
+  <si>
+    <t>CPM-2014 Privée mod</t>
+  </si>
+  <si>
+    <t>JLS 60% garantie 5 ans 100%, 10 ans 60%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +255,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -165,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,11 +298,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,19 +357,412 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,7 +778,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,89 +1078,89 @@
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AG1" s="11" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AG1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -625,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,7 +1376,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>18</v>
       </c>
@@ -830,7 +1387,7 @@
         <f>A5</f>
         <v>18</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>1.2</v>
       </c>
       <c r="F5">
@@ -1023,7 +1580,7 @@
         <v>6.5251816537443641E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>19</v>
       </c>
@@ -1034,7 +1591,7 @@
         <f t="shared" ref="D6:D69" si="29">A6</f>
         <v>19</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>1.2</v>
       </c>
       <c r="F6">
@@ -1227,7 +1784,7 @@
         <v>7.3016289940900021E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -1238,7 +1795,7 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>1.2</v>
       </c>
       <c r="F7">
@@ -1431,7 +1988,7 @@
         <v>7.9969898556585327E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>21</v>
       </c>
@@ -1442,7 +1999,7 @@
         <f t="shared" si="29"/>
         <v>21</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>1.2</v>
       </c>
       <c r="F8">
@@ -1635,7 +2192,7 @@
         <v>8.6919948983667597E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>22</v>
       </c>
@@ -1646,7 +2203,7 @@
         <f t="shared" si="29"/>
         <v>22</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>1.2</v>
       </c>
       <c r="F9">
@@ -1839,7 +2396,7 @@
         <v>9.3057846872691356E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>23</v>
       </c>
@@ -1850,7 +2407,7 @@
         <f t="shared" si="29"/>
         <v>23</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>1.2</v>
       </c>
       <c r="F10">
@@ -2043,7 +2600,7 @@
         <v>9.918037818324088E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>24</v>
       </c>
@@ -2054,7 +2611,7 @@
         <f t="shared" si="29"/>
         <v>24</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>1.2</v>
       </c>
       <c r="F11">
@@ -2247,7 +2804,7 @@
         <v>1.0358752212578409E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>25</v>
       </c>
@@ -2258,7 +2815,7 @@
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>1.2</v>
       </c>
       <c r="F12">
@@ -2451,7 +3008,7 @@
         <v>1.0627461032820024E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>26</v>
       </c>
@@ -2462,7 +3019,7 @@
         <f t="shared" si="29"/>
         <v>26</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>1.2</v>
       </c>
       <c r="F13">
@@ -2655,7 +3212,7 @@
         <v>1.1066233410540437E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>27</v>
       </c>
@@ -2666,7 +3223,7 @@
         <f t="shared" si="29"/>
         <v>27</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>1.2</v>
       </c>
       <c r="F14">
@@ -2859,7 +3416,7 @@
         <v>1.1332523974015157E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>28</v>
       </c>
@@ -2870,7 +3427,7 @@
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>1.2</v>
       </c>
       <c r="F15">
@@ -3063,7 +3620,7 @@
         <v>1.1513742389434786E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>29</v>
       </c>
@@ -3074,7 +3631,7 @@
         <f t="shared" si="29"/>
         <v>29</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>1.2</v>
       </c>
       <c r="F16">
@@ -3267,7 +3824,7 @@
         <v>1.1692828499276851E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>30</v>
       </c>
@@ -3278,7 +3835,7 @@
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>1.2</v>
       </c>
       <c r="F17">
@@ -3471,7 +4028,7 @@
         <v>1.1781843562748706E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>31</v>
       </c>
@@ -3482,7 +4039,7 @@
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>1.2</v>
       </c>
       <c r="F18">
@@ -3675,7 +4232,7 @@
         <v>1.1957540473850048E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>32</v>
       </c>
@@ -3686,7 +4243,7 @@
         <f t="shared" si="29"/>
         <v>32</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>1.2</v>
       </c>
       <c r="F19">
@@ -3879,7 +4436,7 @@
         <v>1.1962409108833153E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>33</v>
       </c>
@@ -3890,7 +4447,7 @@
         <f t="shared" si="29"/>
         <v>33</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>1.2</v>
       </c>
       <c r="F20">
@@ -4083,7 +4640,7 @@
         <v>1.1790241374205011E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>34</v>
       </c>
@@ -4094,7 +4651,7 @@
         <f t="shared" si="29"/>
         <v>34</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>1.2</v>
       </c>
       <c r="F21">
@@ -4287,7 +4844,7 @@
         <v>1.1790241374205011E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>35</v>
       </c>
@@ -4298,7 +4855,7 @@
         <f t="shared" si="29"/>
         <v>35</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>1.2</v>
       </c>
       <c r="F22">
@@ -4491,7 +5048,7 @@
         <v>1.179264840679065E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>36</v>
       </c>
@@ -4502,7 +5059,7 @@
         <f t="shared" si="29"/>
         <v>36</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>1.2</v>
       </c>
       <c r="F23">
@@ -4695,7 +5252,7 @@
         <v>1.1797437571881432E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -4706,7 +5263,7 @@
         <f t="shared" si="29"/>
         <v>37</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>1.2</v>
       </c>
       <c r="F24">
@@ -4899,7 +5456,7 @@
         <v>1.1973372972301946E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -4910,7 +5467,7 @@
         <f t="shared" si="29"/>
         <v>38</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>1.2</v>
       </c>
       <c r="F25">
@@ -5103,7 +5660,7 @@
         <v>1.2320427261354177E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>39</v>
       </c>
@@ -5114,7 +5671,7 @@
         <f t="shared" si="29"/>
         <v>39</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>1.2</v>
       </c>
       <c r="F26">
@@ -5307,7 +5864,7 @@
         <v>1.2756846310642189E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -5318,7 +5875,7 @@
         <f t="shared" si="29"/>
         <v>40</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>1.2</v>
       </c>
       <c r="F27">
@@ -5511,7 +6068,7 @@
         <v>1.3367036354412678E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>41</v>
       </c>
@@ -5522,7 +6079,7 @@
         <f t="shared" si="29"/>
         <v>41</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>1.2</v>
       </c>
       <c r="F28">
@@ -5715,7 +6272,7 @@
         <v>1.4106680167441119E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42</v>
       </c>
@@ -5726,7 +6283,7 @@
         <f t="shared" si="29"/>
         <v>42</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>1.2</v>
       </c>
       <c r="F29">
@@ -5919,7 +6476,7 @@
         <v>1.501748350688145E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43</v>
       </c>
@@ -5930,7 +6487,7 @@
         <f t="shared" si="29"/>
         <v>43</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>1.2</v>
       </c>
       <c r="F30">
@@ -6123,7 +6680,7 @@
         <v>1.6096967668938341E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44</v>
       </c>
@@ -6134,7 +6691,7 @@
         <f t="shared" si="29"/>
         <v>44</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <v>1.2</v>
       </c>
       <c r="F31">
@@ -6327,7 +6884,7 @@
         <v>1.7258284658664604E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45</v>
       </c>
@@ -6338,7 +6895,7 @@
         <f t="shared" si="29"/>
         <v>45</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>1.2</v>
       </c>
       <c r="F32">
@@ -6531,7 +7088,7 @@
         <v>1.8497397305479446E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>46</v>
       </c>
@@ -6542,7 +7099,7 @@
         <f t="shared" si="29"/>
         <v>46</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>1.2</v>
       </c>
       <c r="F33">
@@ -6735,7 +7292,7 @@
         <v>1.9819289271453787E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>47</v>
       </c>
@@ -6746,7 +7303,7 @@
         <f t="shared" si="29"/>
         <v>47</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>1.2</v>
       </c>
       <c r="F34">
@@ -6939,7 +7496,7 @@
         <v>2.1217708474371207E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>48</v>
       </c>
@@ -6950,7 +7507,7 @@
         <f t="shared" si="29"/>
         <v>48</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>1.2</v>
       </c>
       <c r="F35">
@@ -7143,7 +7700,7 @@
         <v>2.2530825242961911E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>49</v>
       </c>
@@ -7154,7 +7711,7 @@
         <f t="shared" si="29"/>
         <v>49</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>1.2</v>
       </c>
       <c r="F36">
@@ -7347,7 +7904,7 @@
         <v>2.4022281823315385E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>50</v>
       </c>
@@ -7358,7 +7915,7 @@
         <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>1.2</v>
       </c>
       <c r="F37">
@@ -7551,7 +8108,7 @@
         <v>2.5516641847873243E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>51</v>
       </c>
@@ -7562,7 +8119,7 @@
         <f t="shared" si="29"/>
         <v>51</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>1.2</v>
       </c>
       <c r="F38">
@@ -7755,7 +8312,7 @@
         <v>2.7334593310119359E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>52</v>
       </c>
@@ -7766,7 +8323,7 @@
         <f t="shared" si="29"/>
         <v>52</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>1.2</v>
       </c>
       <c r="F39">
@@ -7959,7 +8516,7 @@
         <v>2.9487116787819526E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>53</v>
       </c>
@@ -7970,7 +8527,7 @@
         <f t="shared" si="29"/>
         <v>53</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>1.2</v>
       </c>
       <c r="F40">
@@ -8163,7 +8720,7 @@
         <v>3.1898632583493361E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -8174,7 +8731,7 @@
         <f t="shared" si="29"/>
         <v>54</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>1.2</v>
       </c>
       <c r="F41">
@@ -8367,7 +8924,7 @@
         <v>3.4725698752459105E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>55</v>
       </c>
@@ -8378,7 +8935,7 @@
         <f t="shared" si="29"/>
         <v>55</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>1.2</v>
       </c>
       <c r="F42">
@@ -8571,7 +9128,7 @@
         <v>3.8142879209227161E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -8582,7 +9139,7 @@
         <f t="shared" si="29"/>
         <v>56</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="9">
         <v>1.2</v>
       </c>
       <c r="F43">
@@ -8775,7 +9332,7 @@
         <v>4.206210276387721E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -8786,7 +9343,7 @@
         <f t="shared" si="29"/>
         <v>57</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>1.2</v>
       </c>
       <c r="F44">
@@ -8979,7 +9536,7 @@
         <v>4.6380307337558465E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -8990,7 +9547,7 @@
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>1.2</v>
       </c>
       <c r="F45">
@@ -9183,7 +9740,7 @@
         <v>5.1049473633963836E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -9194,7 +9751,7 @@
         <f t="shared" si="29"/>
         <v>59</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>1.2</v>
       </c>
       <c r="F46">
@@ -9387,7 +9944,7 @@
         <v>5.5918210781648828E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -9398,7 +9955,7 @@
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="9">
         <v>1.2</v>
       </c>
       <c r="F47">
@@ -9591,7 +10148,7 @@
         <v>6.0880549575645379E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>61</v>
       </c>
@@ -9602,7 +10159,7 @@
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <f>E47-(0.1)/10</f>
         <v>1.19</v>
       </c>
@@ -9796,7 +10353,7 @@
         <v>7.787705504159791E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -9807,7 +10364,7 @@
         <f t="shared" si="29"/>
         <v>62</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="9">
         <f t="shared" ref="E49:E56" si="34">E48-(0.1)/10</f>
         <v>1.18</v>
       </c>
@@ -10001,7 +10558,7 @@
         <v>8.2725865084782042E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -10012,7 +10569,7 @@
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <f t="shared" si="34"/>
         <v>1.17</v>
       </c>
@@ -10206,7 +10763,7 @@
         <v>8.7641680595887395E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>64</v>
       </c>
@@ -10217,7 +10774,7 @@
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="9">
         <f t="shared" si="34"/>
         <v>1.1599999999999999</v>
       </c>
@@ -10411,7 +10968,7 @@
         <v>9.2624039737820938E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -10422,7 +10979,7 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="9">
         <f t="shared" si="34"/>
         <v>1.1499999999999999</v>
       </c>
@@ -10616,7 +11173,7 @@
         <v>9.7730402447331714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -10627,7 +11184,7 @@
         <f t="shared" si="29"/>
         <v>66</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="9">
         <f t="shared" si="34"/>
         <v>1.1399999999999999</v>
       </c>
@@ -10821,7 +11378,7 @@
         <v>1.0293440580289557E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -10832,7 +11389,7 @@
         <f t="shared" si="29"/>
         <v>67</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <f t="shared" si="34"/>
         <v>1.1299999999999999</v>
       </c>
@@ -11026,7 +11583,7 @@
         <v>1.0751241251902381E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -11037,7 +11594,7 @@
         <f t="shared" si="29"/>
         <v>68</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="9">
         <f t="shared" si="34"/>
         <v>1.1199999999999999</v>
       </c>
@@ -11231,7 +11788,7 @@
         <v>1.1169649494482863E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -11242,7 +11799,7 @@
         <f t="shared" si="29"/>
         <v>69</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="9">
         <f t="shared" si="34"/>
         <v>1.1099999999999999</v>
       </c>
@@ -11436,7 +11993,7 @@
         <v>1.1611516621434746E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>70</v>
       </c>
@@ -11447,7 +12004,7 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F57">
@@ -11640,7 +12197,7 @@
         <v>1.1486291425104215E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -11651,7 +12208,7 @@
         <f t="shared" si="29"/>
         <v>71</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F58">
@@ -11844,7 +12401,7 @@
         <v>1.2660841767715156E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -11855,7 +12412,7 @@
         <f t="shared" si="29"/>
         <v>72</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F59">
@@ -12048,7 +12605,7 @@
         <v>1.3999007704244679E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -12059,7 +12616,7 @@
         <f t="shared" si="29"/>
         <v>73</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F60">
@@ -12252,7 +12809,7 @@
         <v>1.5524029633757694E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>74</v>
       </c>
@@ -12263,7 +12820,7 @@
         <f t="shared" si="29"/>
         <v>74</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F61">
@@ -12456,7 +13013,7 @@
         <v>1.7251433957622585E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -12467,7 +13024,7 @@
         <f t="shared" si="29"/>
         <v>75</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F62">
@@ -12660,7 +13217,7 @@
         <v>1.9292113647112804E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>76</v>
       </c>
@@ -12671,7 +13228,7 @@
         <f t="shared" si="29"/>
         <v>76</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F63">
@@ -12864,7 +13421,7 @@
         <v>2.1505338333910544E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>77</v>
       </c>
@@ -12875,7 +13432,7 @@
         <f t="shared" si="29"/>
         <v>77</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F64">
@@ -13068,7 +13625,7 @@
         <v>2.4056116580205983E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>78</v>
       </c>
@@ -13079,7 +13636,7 @@
         <f t="shared" si="29"/>
         <v>78</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F65">
@@ -13272,7 +13829,7 @@
         <v>2.702981576118673E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>79</v>
       </c>
@@ -13283,7 +13840,7 @@
         <f t="shared" si="29"/>
         <v>79</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F66">
@@ -13476,7 +14033,7 @@
         <v>3.0433707418378347E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>80</v>
       </c>
@@ -13487,7 +14044,7 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F67">
@@ -13680,7 +14237,7 @@
         <v>3.4351399447251359E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>81</v>
       </c>
@@ -13691,7 +14248,7 @@
         <f t="shared" si="29"/>
         <v>81</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <f t="shared" ref="E68:E76" si="64">E67-(0.1)/10</f>
         <v>1.0900000000000001</v>
       </c>
@@ -13885,7 +14442,7 @@
         <v>4.411967960367616E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>82</v>
       </c>
@@ -13896,7 +14453,7 @@
         <f t="shared" si="29"/>
         <v>82</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="9">
         <f t="shared" si="64"/>
         <v>1.08</v>
       </c>
@@ -14090,7 +14647,7 @@
         <v>5.0628898377334065E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>83</v>
       </c>
@@ -14101,7 +14658,7 @@
         <f t="shared" ref="D70:D102" si="66">A70</f>
         <v>83</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
         <f t="shared" si="64"/>
         <v>1.07</v>
       </c>
@@ -14295,7 +14852,7 @@
         <v>5.7323651046752896E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>84</v>
       </c>
@@ -14306,7 +14863,7 @@
         <f t="shared" si="66"/>
         <v>84</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="9">
         <f t="shared" si="64"/>
         <v>1.06</v>
       </c>
@@ -14500,7 +15057,7 @@
         <v>6.4357769430453821E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>85</v>
       </c>
@@ -14511,7 +15068,7 @@
         <f t="shared" si="66"/>
         <v>85</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="9">
         <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
@@ -14705,7 +15262,7 @@
         <v>7.1513253102267457E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>86</v>
       </c>
@@ -14716,7 +15273,7 @@
         <f t="shared" si="66"/>
         <v>86</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="9">
         <f t="shared" si="64"/>
         <v>1.04</v>
       </c>
@@ -14910,7 +15467,7 @@
         <v>7.8811493929082502E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>87</v>
       </c>
@@ -14921,7 +15478,7 @@
         <f t="shared" si="66"/>
         <v>87</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="9">
         <f t="shared" si="64"/>
         <v>1.03</v>
       </c>
@@ -15115,7 +15672,7 @@
         <v>8.6405088016679649E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>88</v>
       </c>
@@ -15126,7 +15683,7 @@
         <f t="shared" si="66"/>
         <v>88</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="9">
         <f t="shared" si="64"/>
         <v>1.02</v>
       </c>
@@ -15320,7 +15877,7 @@
         <v>9.3899781330782306E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>89</v>
       </c>
@@ -15331,7 +15888,7 @@
         <f t="shared" si="66"/>
         <v>89</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="9">
         <f t="shared" si="64"/>
         <v>1.01</v>
       </c>
@@ -15525,7 +16082,7 @@
         <v>0.10149029858001164</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>90</v>
       </c>
@@ -15536,7 +16093,7 @@
         <f t="shared" si="66"/>
         <v>90</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="9">
         <v>1</v>
       </c>
       <c r="F77" s="5">
@@ -15729,7 +16286,7 @@
         <v>0.10930364290824554</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>91</v>
       </c>
@@ -15740,7 +16297,7 @@
         <f t="shared" si="66"/>
         <v>91</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="5">
@@ -15933,7 +16490,7 @@
         <v>0.12469549721551655</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>92</v>
       </c>
@@ -15944,7 +16501,7 @@
         <f t="shared" si="66"/>
         <v>92</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="9">
         <v>1</v>
       </c>
       <c r="F79" s="5">
@@ -16137,7 +16694,7 @@
         <v>0.14116298969349303</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>93</v>
       </c>
@@ -16148,7 +16705,7 @@
         <f t="shared" si="66"/>
         <v>93</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="5">
@@ -16341,7 +16898,7 @@
         <v>0.16090333150327202</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>94</v>
       </c>
@@ -16352,7 +16909,7 @@
         <f t="shared" si="66"/>
         <v>94</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="9">
         <v>1</v>
       </c>
       <c r="F81" s="5">
@@ -16545,7 +17102,7 @@
         <v>0.18304459203370724</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>95</v>
       </c>
@@ -16556,7 +17113,7 @@
         <f t="shared" si="66"/>
         <v>95</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="5">
@@ -16749,7 +17306,7 @@
         <v>0.2073979514484072</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>96</v>
       </c>
@@ -16760,7 +17317,7 @@
         <f t="shared" si="66"/>
         <v>96</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="9">
         <v>1</v>
       </c>
       <c r="F83" s="5">
@@ -16953,7 +17510,7 @@
         <v>0.233051543510157</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>97</v>
       </c>
@@ -16964,7 +17521,7 @@
         <f t="shared" si="66"/>
         <v>97</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="5">
@@ -17157,7 +17714,7 @@
         <v>0.25961033372377151</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>98</v>
       </c>
@@ -17168,7 +17725,7 @@
         <f t="shared" si="66"/>
         <v>98</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="9">
         <v>1</v>
       </c>
       <c r="F85" s="5">
@@ -17361,7 +17918,7 @@
         <v>0.28673970783483421</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>99</v>
       </c>
@@ -17372,7 +17929,7 @@
         <f t="shared" si="66"/>
         <v>99</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="5">
@@ -17565,7 +18122,7 @@
         <v>0.31423663674770841</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>100</v>
       </c>
@@ -17576,7 +18133,7 @@
         <f t="shared" si="66"/>
         <v>100</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="9">
         <v>1</v>
       </c>
       <c r="F87" s="5">
@@ -17769,7 +18326,7 @@
         <v>0.34216043440429872</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>101</v>
       </c>
@@ -17780,7 +18337,7 @@
         <f t="shared" si="66"/>
         <v>101</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="5">
@@ -17973,7 +18530,7 @@
         <v>0.36785224699655483</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>102</v>
       </c>
@@ -17984,7 +18541,7 @@
         <f t="shared" si="66"/>
         <v>102</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="9">
         <v>1</v>
       </c>
       <c r="F89" s="5">
@@ -18177,7 +18734,7 @@
         <v>0.39424325802576676</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>103</v>
       </c>
@@ -18188,7 +18745,7 @@
         <f t="shared" si="66"/>
         <v>103</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="5">
@@ -18381,7 +18938,7 @@
         <v>0.42202798507682865</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>104</v>
       </c>
@@ -18392,7 +18949,7 @@
         <f t="shared" si="66"/>
         <v>104</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="9">
         <v>1</v>
       </c>
       <c r="F91" s="5">
@@ -18585,7 +19142,7 @@
         <v>0.45213847221654996</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>105</v>
       </c>
@@ -18596,7 +19153,7 @@
         <f t="shared" si="66"/>
         <v>105</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="9">
         <v>1</v>
       </c>
       <c r="F92" s="5">
@@ -18789,7 +19346,7 @@
         <v>0.47904000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>106</v>
       </c>
@@ -18800,7 +19357,7 @@
         <f t="shared" si="66"/>
         <v>106</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="9">
         <v>1</v>
       </c>
       <c r="F93" s="5">
@@ -18808,7 +19365,7 @@
         <v>0.49928</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>107</v>
       </c>
@@ -18819,7 +19376,7 @@
         <f t="shared" si="66"/>
         <v>107</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="9">
         <v>1</v>
       </c>
       <c r="F94" s="5">
@@ -18827,7 +19384,7 @@
         <v>0.51949999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>108</v>
       </c>
@@ -18838,7 +19395,7 @@
         <f t="shared" si="66"/>
         <v>108</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="9">
         <v>1</v>
       </c>
       <c r="F95" s="5">
@@ -18846,7 +19403,7 @@
         <v>0.53969999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>109</v>
       </c>
@@ -18857,7 +19414,7 @@
         <f t="shared" si="66"/>
         <v>109</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="9">
         <v>1</v>
       </c>
       <c r="F96" s="5">
@@ -18865,7 +19422,7 @@
         <v>0.55986999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>110</v>
       </c>
@@ -18876,7 +19433,7 @@
         <f t="shared" si="66"/>
         <v>110</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="9">
         <v>1</v>
       </c>
       <c r="F97" s="5">
@@ -18884,7 +19441,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>111</v>
       </c>
@@ -18895,7 +19452,7 @@
         <f t="shared" si="66"/>
         <v>111</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="9">
         <v>1</v>
       </c>
       <c r="F98" s="5">
@@ -18903,7 +19460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>112</v>
       </c>
@@ -18914,7 +19471,7 @@
         <f t="shared" si="66"/>
         <v>112</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="9">
         <v>1</v>
       </c>
       <c r="F99" s="5">
@@ -18922,7 +19479,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>113</v>
       </c>
@@ -18933,7 +19490,7 @@
         <f t="shared" si="66"/>
         <v>113</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="9">
         <v>1</v>
       </c>
       <c r="F100" s="5">
@@ -18941,7 +19498,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>114</v>
       </c>
@@ -18952,7 +19509,7 @@
         <f t="shared" si="66"/>
         <v>114</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="9">
         <v>1</v>
       </c>
       <c r="F101" s="5">
@@ -18960,7 +19517,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>115</v>
       </c>
@@ -18971,7 +19528,7 @@
         <f t="shared" si="66"/>
         <v>115</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="9">
         <v>1</v>
       </c>
       <c r="F102" s="5">
@@ -18996,93 +19553,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D067C1C2-FD4F-4F8A-AA6C-C206EF777769}">
   <dimension ref="A1:BI116"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="109" workbookViewId="0">
       <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AG1" s="11" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AG1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -19104,7 +19661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -19298,7 +19855,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>18</v>
       </c>
@@ -19309,7 +19866,7 @@
         <f>A5</f>
         <v>18</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>1.2</v>
       </c>
       <c r="F5">
@@ -19502,7 +20059,7 @@
         <v>1.5072507409827064E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>19</v>
       </c>
@@ -19513,7 +20070,7 @@
         <f t="shared" ref="D6:D69" si="2">A6</f>
         <v>19</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>1.2</v>
       </c>
       <c r="F6">
@@ -19706,7 +20263,7 @@
         <v>1.6866253845264245E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -19717,7 +20274,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>1.2</v>
       </c>
       <c r="F7">
@@ -19910,7 +20467,7 @@
         <v>1.7786365265934839E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>21</v>
       </c>
@@ -19921,7 +20478,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>1.2</v>
       </c>
       <c r="F8">
@@ -20114,7 +20671,7 @@
         <v>1.8700306282013225E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>22</v>
       </c>
@@ -20125,7 +20682,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>1.2</v>
       </c>
       <c r="F9">
@@ -20318,7 +20875,7 @@
         <v>1.9622570914004368E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>23</v>
       </c>
@@ -20329,7 +20886,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>1.2</v>
       </c>
       <c r="F10">
@@ -20522,7 +21079,7 @@
         <v>2.1436819272205258E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>24</v>
       </c>
@@ -20533,7 +21090,7 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>1.2</v>
       </c>
       <c r="F11">
@@ -20726,7 +21283,7 @@
         <v>2.2361702127982701E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>25</v>
       </c>
@@ -20737,7 +21294,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>1.2</v>
       </c>
       <c r="F12">
@@ -20930,7 +21487,7 @@
         <v>2.4179989890507666E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>26</v>
       </c>
@@ -20941,7 +21498,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>1.2</v>
       </c>
       <c r="F13">
@@ -21134,7 +21691,7 @@
         <v>2.5106018429243163E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>27</v>
       </c>
@@ -21145,7 +21702,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>1.2</v>
       </c>
       <c r="F14">
@@ -21338,7 +21895,7 @@
         <v>2.6026352050749073E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>28</v>
       </c>
@@ -21349,7 +21906,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>1.2</v>
       </c>
       <c r="F15">
@@ -21542,7 +22099,7 @@
         <v>2.6945611201798506E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>29</v>
       </c>
@@ -21553,7 +22110,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>1.2</v>
       </c>
       <c r="F16">
@@ -21746,7 +22303,7 @@
         <v>2.7857888093285545E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>30</v>
       </c>
@@ -21757,7 +22314,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>1.2</v>
       </c>
       <c r="F17">
@@ -21950,7 +22507,7 @@
         <v>2.9673171000365787E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>31</v>
       </c>
@@ -21961,7 +22518,7 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>1.2</v>
       </c>
       <c r="F18">
@@ -22154,7 +22711,7 @@
         <v>3.1474729090331352E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>32</v>
       </c>
@@ -22165,7 +22722,7 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>1.2</v>
       </c>
       <c r="F19">
@@ -22358,7 +22915,7 @@
         <v>3.3273285038350279E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>33</v>
       </c>
@@ -22369,7 +22926,7 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>1.2</v>
       </c>
       <c r="F20">
@@ -22562,7 +23119,7 @@
         <v>3.5068293000432306E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>34</v>
       </c>
@@ -22573,7 +23130,7 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>1.2</v>
       </c>
       <c r="F21">
@@ -22766,7 +23323,7 @@
         <v>3.8661128326827535E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>35</v>
       </c>
@@ -22777,7 +23334,7 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>1.2</v>
       </c>
       <c r="F22">
@@ -22970,7 +23527,7 @@
         <v>4.1333327829024805E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>36</v>
       </c>
@@ -22981,7 +23538,7 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>1.2</v>
       </c>
       <c r="F23">
@@ -23174,7 +23731,7 @@
         <v>4.4913893806395851E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -23185,7 +23742,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>1.2</v>
       </c>
       <c r="F24">
@@ -23378,7 +23935,7 @@
         <v>4.7589462880622571E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -23389,7 +23946,7 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>1.2</v>
       </c>
       <c r="F25">
@@ -23582,7 +24139,7 @@
         <v>5.2047437741309821E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>39</v>
       </c>
@@ -23593,7 +24150,7 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>1.2</v>
       </c>
       <c r="F26">
@@ -23786,7 +24343,7 @@
         <v>5.5620030940335045E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>40</v>
       </c>
@@ -23797,7 +24354,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>1.2</v>
       </c>
       <c r="F27">
@@ -23990,7 +24547,7 @@
         <v>6.0075115527117575E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>41</v>
       </c>
@@ -24001,7 +24558,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>1.2</v>
       </c>
       <c r="F28">
@@ -24194,7 +24751,7 @@
         <v>6.4506117910841738E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42</v>
       </c>
@@ -24205,7 +24762,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>1.2</v>
       </c>
       <c r="F29">
@@ -24398,7 +24955,7 @@
         <v>6.8007204477523603E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43</v>
       </c>
@@ -24409,7 +24966,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>1.2</v>
       </c>
       <c r="F30">
@@ -24602,7 +25159,7 @@
         <v>7.3324259662250167E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44</v>
       </c>
@@ -24613,7 +25170,7 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <v>1.2</v>
       </c>
       <c r="F31">
@@ -24806,7 +25363,7 @@
         <v>7.8633782248781084E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45</v>
       </c>
@@ -24817,7 +25374,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>1.2</v>
       </c>
       <c r="F32">
@@ -25010,7 +25567,7 @@
         <v>8.4871597325082227E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>46</v>
       </c>
@@ -25021,7 +25578,7 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>1.2</v>
       </c>
       <c r="F33">
@@ -25214,7 +25771,7 @@
         <v>9.1097694253982112E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>47</v>
       </c>
@@ -25225,7 +25782,7 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>1.2</v>
       </c>
       <c r="F34">
@@ -25418,7 +25975,7 @@
         <v>9.9085625150289623E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>48</v>
       </c>
@@ -25429,7 +25986,7 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>1.2</v>
       </c>
       <c r="F35">
@@ -25622,7 +26179,7 @@
         <v>1.0709796870341361E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>49</v>
       </c>
@@ -25633,7 +26190,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>1.2</v>
       </c>
       <c r="F36">
@@ -25826,7 +26383,7 @@
         <v>1.1592899502723482E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>50</v>
       </c>
@@ -25837,7 +26394,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>1.2</v>
       </c>
       <c r="F37">
@@ -26030,7 +26587,7 @@
         <v>1.2652772672484371E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>51</v>
       </c>
@@ -26041,7 +26598,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>1.2</v>
       </c>
       <c r="F38">
@@ -26234,7 +26791,7 @@
         <v>1.3787394774062974E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>52</v>
       </c>
@@ -26245,7 +26802,7 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>1.2</v>
       </c>
       <c r="F39">
@@ -26438,7 +26995,7 @@
         <v>1.5008391369304614E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>53</v>
       </c>
@@ -26449,7 +27006,7 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>1.2</v>
       </c>
       <c r="F40">
@@ -26642,7 +27199,7 @@
         <v>1.6389449190067258E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -26653,7 +27210,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>1.2</v>
       </c>
       <c r="F41">
@@ -26846,7 +27403,7 @@
         <v>1.8019716125942183E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>55</v>
       </c>
@@ -26857,7 +27414,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>1.2</v>
       </c>
       <c r="F42">
@@ -27050,7 +27607,7 @@
         <v>2.0068445219352145E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -27061,7 +27618,7 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="9">
         <v>1.2</v>
       </c>
       <c r="F43">
@@ -27254,7 +27811,7 @@
         <v>2.2264308647595983E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -27265,7 +27822,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>1.2</v>
       </c>
       <c r="F44">
@@ -27458,7 +28015,7 @@
         <v>2.4765670499381025E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -27469,7 +28026,7 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>1.2</v>
       </c>
       <c r="F45">
@@ -27662,7 +28219,7 @@
         <v>2.7422473397897881E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -27673,7 +28230,7 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>1.2</v>
       </c>
       <c r="F46">
@@ -27866,7 +28423,7 @@
         <v>3.0151422121284296E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -27877,7 +28434,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="9">
         <v>1.2</v>
       </c>
       <c r="F47">
@@ -28070,7 +28627,7 @@
         <v>3.3113559912843703E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>61</v>
       </c>
@@ -28081,7 +28638,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <f>E47-(0.1)/10</f>
         <v>1.19</v>
       </c>
@@ -28275,7 +28832,7 @@
         <v>4.3644353703443705E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -28286,7 +28843,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="9">
         <f t="shared" ref="E49:E56" si="13">E48-(0.1)/10</f>
         <v>1.18</v>
       </c>
@@ -28480,7 +29037,7 @@
         <v>4.7548400392944867E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -28491,7 +29048,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <f t="shared" si="13"/>
         <v>1.17</v>
       </c>
@@ -28685,7 +29242,7 @@
         <v>5.1489804254530652E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>64</v>
       </c>
@@ -28696,7 +29253,7 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="9">
         <f t="shared" si="13"/>
         <v>1.1599999999999999</v>
       </c>
@@ -28890,7 +29447,7 @@
         <v>5.5448061661661887E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -28901,7 +29458,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="9">
         <f t="shared" si="13"/>
         <v>1.1499999999999999</v>
       </c>
@@ -29095,7 +29652,7 @@
         <v>5.9519737780922566E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -29106,7 +29663,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="9">
         <f t="shared" si="13"/>
         <v>1.1399999999999999</v>
       </c>
@@ -29300,7 +29857,7 @@
         <v>6.3755431599712949E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -29311,7 +29868,7 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <f t="shared" si="13"/>
         <v>1.1299999999999999</v>
       </c>
@@ -29505,7 +30062,7 @@
         <v>6.7882674865003979E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -29516,7 +30073,7 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="9">
         <f t="shared" si="13"/>
         <v>1.1199999999999999</v>
       </c>
@@ -29710,7 +30267,7 @@
         <v>7.2080790922819408E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -29721,7 +30278,7 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="9">
         <f t="shared" si="13"/>
         <v>1.1099999999999999</v>
       </c>
@@ -29915,7 +30472,7 @@
         <v>7.6507296630617351E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>70</v>
       </c>
@@ -29926,7 +30483,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F57">
@@ -30119,7 +30676,7 @@
         <v>7.7889215503139609E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -30130,7 +30687,7 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F58">
@@ -30323,7 +30880,7 @@
         <v>8.6146707136411892E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -30334,7 +30891,7 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F59">
@@ -30527,7 +31084,7 @@
         <v>9.5412258370660436E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -30538,7 +31095,7 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F60">
@@ -30731,7 +31288,7 @@
         <v>1.0522730160309792E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>74</v>
       </c>
@@ -30742,7 +31299,7 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F61">
@@ -30935,7 +31492,7 @@
         <v>1.1671445496813765E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -30946,7 +31503,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F62">
@@ -31139,7 +31696,7 @@
         <v>1.3010701194246898E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>76</v>
       </c>
@@ -31150,7 +31707,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F63">
@@ -31343,7 +31900,7 @@
         <v>1.4565270320216303E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>77</v>
       </c>
@@ -31354,7 +31911,7 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F64">
@@ -31547,7 +32104,7 @@
         <v>1.6388595649528527E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>78</v>
       </c>
@@ -31558,7 +32115,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F65">
@@ -31751,7 +32308,7 @@
         <v>1.8520141460327797E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>79</v>
       </c>
@@ -31762,7 +32319,7 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F66">
@@ -31955,7 +32512,7 @@
         <v>2.1029009545951279E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>80</v>
       </c>
@@ -31966,7 +32523,7 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F67">
@@ -32159,7 +32716,7 @@
         <v>2.4070844602759316E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>81</v>
       </c>
@@ -32170,7 +32727,7 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <f t="shared" ref="E68:E76" si="18">E67-(0.1)/10</f>
         <v>1.0900000000000001</v>
       </c>
@@ -32364,7 +32921,7 @@
         <v>3.207043720585518E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>82</v>
       </c>
@@ -32375,7 +32932,7 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="9">
         <f t="shared" si="18"/>
         <v>1.08</v>
       </c>
@@ -32569,7 +33126,7 @@
         <v>3.774761999673916E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>83</v>
       </c>
@@ -32580,7 +33137,7 @@
         <f t="shared" ref="D70:D102" si="20">A70</f>
         <v>83</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
         <f t="shared" si="18"/>
         <v>1.07</v>
       </c>
@@ -32774,7 +33331,7 @@
         <v>4.3501562206446999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>84</v>
       </c>
@@ -32785,7 +33342,7 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="9">
         <f t="shared" si="18"/>
         <v>1.06</v>
       </c>
@@ -32979,7 +33536,7 @@
         <v>4.9344598336621671E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>85</v>
       </c>
@@ -32990,7 +33547,7 @@
         <f t="shared" si="20"/>
         <v>85</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="9">
         <f t="shared" si="18"/>
         <v>1.05</v>
       </c>
@@ -33184,7 +33741,7 @@
         <v>5.5067620738300453E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>86</v>
       </c>
@@ -33195,7 +33752,7 @@
         <f t="shared" si="20"/>
         <v>86</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="9">
         <f t="shared" si="18"/>
         <v>1.04</v>
       </c>
@@ -33389,7 +33946,7 @@
         <v>6.0198080527979779E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>87</v>
       </c>
@@ -33400,7 +33957,7 @@
         <f t="shared" si="20"/>
         <v>87</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="9">
         <f t="shared" si="18"/>
         <v>1.03</v>
       </c>
@@ -33594,7 +34151,7 @@
         <v>6.5754315222295023E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>88</v>
       </c>
@@ -33605,7 +34162,7 @@
         <f t="shared" si="20"/>
         <v>88</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="9">
         <f t="shared" si="18"/>
         <v>1.02</v>
       </c>
@@ -33799,7 +34356,7 @@
         <v>7.1450454164051491E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>89</v>
       </c>
@@ -33810,7 +34367,7 @@
         <f t="shared" si="20"/>
         <v>89</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="9">
         <f t="shared" si="18"/>
         <v>1.01</v>
       </c>
@@ -34004,7 +34561,7 @@
         <v>7.7223986730709043E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>90</v>
       </c>
@@ -34015,7 +34572,7 @@
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="9">
         <v>1</v>
       </c>
       <c r="F77" s="5">
@@ -34208,7 +34765,7 @@
         <v>8.2984915065912254E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>91</v>
       </c>
@@ -34219,7 +34776,7 @@
         <f t="shared" si="20"/>
         <v>91</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="5">
@@ -34412,7 +34969,7 @@
         <v>9.5401260824192161E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>92</v>
       </c>
@@ -34423,7 +34980,7 @@
         <f t="shared" si="20"/>
         <v>92</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="9">
         <v>1</v>
       </c>
       <c r="F79" s="5">
@@ -34616,7 +35173,7 @@
         <v>0.10894046821719651</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>93</v>
       </c>
@@ -34627,7 +35184,7 @@
         <f t="shared" si="20"/>
         <v>93</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="5">
@@ -34820,7 +35377,7 @@
         <v>0.12588294806646289</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>94</v>
       </c>
@@ -34831,7 +35388,7 @@
         <f t="shared" si="20"/>
         <v>94</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="9">
         <v>1</v>
       </c>
       <c r="F81" s="5">
@@ -35024,7 +35581,7 @@
         <v>0.14397864044451752</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>95</v>
       </c>
@@ -35035,7 +35592,7 @@
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="5">
@@ -35228,7 +35785,7 @@
         <v>0.16416053689155646</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>96</v>
       </c>
@@ -35239,7 +35796,7 @@
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="9">
         <v>1</v>
       </c>
       <c r="F83" s="5">
@@ -35432,7 +35989,7 @@
         <v>0.18746131686194467</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>97</v>
       </c>
@@ -35443,7 +36000,7 @@
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="5">
@@ -35636,7 +36193,7 @@
         <v>0.21380642290332469</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>98</v>
       </c>
@@ -35647,7 +36204,7 @@
         <f t="shared" si="20"/>
         <v>98</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="9">
         <v>1</v>
       </c>
       <c r="F85" s="5">
@@ -35840,7 +36397,7 @@
         <v>0.24167213381277061</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>99</v>
       </c>
@@ -35851,7 +36408,7 @@
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="5">
@@ -36044,7 +36601,7 @@
         <v>0.26973696810136322</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>100</v>
       </c>
@@ -36055,7 +36612,7 @@
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="9">
         <v>1</v>
       </c>
       <c r="F87" s="5">
@@ -36248,7 +36805,7 @@
         <v>0.29720054189792405</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>101</v>
       </c>
@@ -36259,7 +36816,7 @@
         <f t="shared" si="20"/>
         <v>101</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="5">
@@ -36452,7 +37009,7 @@
         <v>0.32295878743505818</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>102</v>
       </c>
@@ -36463,7 +37020,7 @@
         <f t="shared" si="20"/>
         <v>102</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="9">
         <v>1</v>
       </c>
       <c r="F89" s="5">
@@ -36656,7 +37213,7 @@
         <v>0.34731631177026023</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>103</v>
       </c>
@@ -36667,7 +37224,7 @@
         <f t="shared" si="20"/>
         <v>103</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="5">
@@ -36860,7 +37417,7 @@
         <v>0.37061012803672611</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>104</v>
       </c>
@@ -36871,7 +37428,7 @@
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="9">
         <v>1</v>
       </c>
       <c r="F91" s="5">
@@ -37064,7 +37621,7 @@
         <v>0.39362853832680211</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>105</v>
       </c>
@@ -37075,7 +37632,7 @@
         <f t="shared" si="20"/>
         <v>105</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="9">
         <v>1</v>
       </c>
       <c r="F92" s="5">
@@ -37268,7 +37825,7 @@
         <v>0.41915999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>106</v>
       </c>
@@ -37279,7 +37836,7 @@
         <f t="shared" si="20"/>
         <v>106</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="9">
         <v>1</v>
       </c>
       <c r="F93" s="5">
@@ -37287,7 +37844,7 @@
         <v>0.43936999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>107</v>
       </c>
@@ -37298,7 +37855,7 @@
         <f t="shared" si="20"/>
         <v>107</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="9">
         <v>1</v>
       </c>
       <c r="F94" s="5">
@@ -37306,7 +37863,7 @@
         <v>0.45956000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>108</v>
       </c>
@@ -37317,7 +37874,7 @@
         <f t="shared" si="20"/>
         <v>108</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="9">
         <v>1</v>
       </c>
       <c r="F95" s="5">
@@ -37325,7 +37882,7 @@
         <v>0.47972999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>109</v>
       </c>
@@ -37336,7 +37893,7 @@
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="9">
         <v>1</v>
       </c>
       <c r="F96" s="5">
@@ -37344,7 +37901,7 @@
         <v>0.50988</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>110</v>
       </c>
@@ -37355,7 +37912,7 @@
         <f t="shared" si="20"/>
         <v>110</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="9">
         <v>1</v>
       </c>
       <c r="F97" s="5">
@@ -37363,7 +37920,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>111</v>
       </c>
@@ -37374,7 +37931,7 @@
         <f t="shared" si="20"/>
         <v>111</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="9">
         <v>1</v>
       </c>
       <c r="F98" s="5">
@@ -37382,7 +37939,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>112</v>
       </c>
@@ -37393,7 +37950,7 @@
         <f t="shared" si="20"/>
         <v>112</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="9">
         <v>1</v>
       </c>
       <c r="F99" s="5">
@@ -37401,7 +37958,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>113</v>
       </c>
@@ -37412,7 +37969,7 @@
         <f t="shared" si="20"/>
         <v>113</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="9">
         <v>1</v>
       </c>
       <c r="F100" s="5">
@@ -37420,7 +37977,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>114</v>
       </c>
@@ -37431,7 +37988,7 @@
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="9">
         <v>1</v>
       </c>
       <c r="F101" s="5">
@@ -37439,7 +37996,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>115</v>
       </c>
@@ -37450,7 +38007,7 @@
         <f t="shared" si="20"/>
         <v>115</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="9">
         <v>1</v>
       </c>
       <c r="F102" s="5">
@@ -37458,47 +38015,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="12"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E104" s="12"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E105" s="12"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E106" s="12"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E107" s="12"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E108" s="12"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E108" s="9"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E109" s="12"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E110" s="12"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E111" s="12"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E112" s="12"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="12"/>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="12"/>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="9"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="12"/>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="12"/>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -37515,483 +38072,519 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959FB7A8-5148-4F85-8CC3-F159933ECA9F}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="13">
         <f>B3+1%</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B10">
-        <f>B9+1</f>
+      <c r="B17">
+        <f>B16+1</f>
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>C9*(1+$B$4)</f>
+      <c r="C17" s="14">
+        <f>C16*(1+$B$4)</f>
         <v>61800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B11">
-        <f>B10+1</f>
+      <c r="B18">
+        <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C11">
-        <f>C10*(1+$B$4)</f>
+      <c r="C18" s="14">
+        <f>C17*(1+$B$4)</f>
         <v>63654</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B12">
-        <f t="shared" ref="B12:B17" si="0">B11+1</f>
+      <c r="B19">
+        <f t="shared" ref="B19:B24" si="0">B18+1</f>
         <v>3</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C17" si="1">C11*(1+$B$4)</f>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:C24" si="1">C18*(1+$B$4)</f>
         <v>65563.62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C20" s="14">
         <f t="shared" si="1"/>
         <v>67530.528599999991</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C21" s="14">
         <f t="shared" si="1"/>
         <v>69556.444457999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C22" s="14">
         <f t="shared" si="1"/>
         <v>71643.137791739995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C23" s="14">
         <f t="shared" si="1"/>
         <v>73792.431925492201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C24" s="14">
         <f t="shared" si="1"/>
         <v>76006.204883256971</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>9</v>
       </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B42" si="2">B17+1</f>
+      <c r="B25">
+        <f t="shared" ref="B25:B49" si="2">B24+1</f>
         <v>9</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C42" si="3">C17*(1+$B$4)</f>
+      <c r="C25" s="14">
+        <f t="shared" ref="C25:C49" si="3">C24*(1+$B$4)</f>
         <v>78286.391029754683</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B26">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C26" s="14">
         <f t="shared" si="3"/>
         <v>80634.982760647326</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B27">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C27" s="14">
         <f t="shared" si="3"/>
         <v>83054.032243466747</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B28">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C28" s="14">
         <f t="shared" si="3"/>
         <v>85545.653210770746</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>13</v>
       </c>
-      <c r="B22">
+      <c r="B29">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C29" s="14">
         <f t="shared" si="3"/>
         <v>88112.022807093876</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B30">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="C30" s="14">
         <f t="shared" si="3"/>
         <v>90755.383491306697</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B31">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C24">
+      <c r="C31" s="14">
         <f t="shared" si="3"/>
         <v>93478.044996045894</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>16</v>
       </c>
-      <c r="B25">
+      <c r="B32">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C32" s="14">
         <f t="shared" si="3"/>
         <v>96282.386345927269</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="B33">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C26">
+      <c r="C33" s="14">
         <f t="shared" si="3"/>
         <v>99170.857936305096</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>18</v>
       </c>
-      <c r="B27">
+      <c r="B34">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C34" s="14">
         <f t="shared" si="3"/>
         <v>102145.98367439426</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>19</v>
       </c>
-      <c r="B28">
+      <c r="B35">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C28">
+      <c r="C35" s="14">
         <f t="shared" si="3"/>
         <v>105210.36318462608</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>20</v>
       </c>
-      <c r="B29">
+      <c r="B36">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C36" s="14">
         <f t="shared" si="3"/>
         <v>108366.67408016487</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>21</v>
       </c>
-      <c r="B30">
+      <c r="B37">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C37" s="14">
         <f t="shared" si="3"/>
         <v>111617.67430256982</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>22</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C31">
+      <c r="C38" s="14">
         <f t="shared" si="3"/>
         <v>114966.20453164692</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>23</v>
       </c>
-      <c r="B32">
+      <c r="B39">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C32">
+      <c r="C39" s="14">
         <f t="shared" si="3"/>
         <v>118415.19066759633</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>24</v>
       </c>
-      <c r="B33">
+      <c r="B40">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C33">
+      <c r="C40" s="14">
         <f t="shared" si="3"/>
         <v>121967.64638762422</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>25</v>
       </c>
-      <c r="B34">
+      <c r="B41">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C34">
+      <c r="C41" s="14">
         <f t="shared" si="3"/>
         <v>125626.67577925295</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>26</v>
       </c>
-      <c r="B35">
+      <c r="B42">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="C35">
+      <c r="C42" s="14">
         <f t="shared" si="3"/>
         <v>129395.47605263055</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>27</v>
       </c>
-      <c r="B36">
+      <c r="B43">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C36">
+      <c r="C43" s="14">
         <f t="shared" si="3"/>
         <v>133277.34033420947</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>28</v>
       </c>
-      <c r="B37">
+      <c r="B44">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C37">
+      <c r="C44" s="14">
         <f t="shared" si="3"/>
         <v>137275.66054423575</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>29</v>
       </c>
-      <c r="B38">
+      <c r="B45">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C45" s="14">
         <f t="shared" si="3"/>
         <v>141393.93036056284</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>30</v>
       </c>
-      <c r="B39">
+      <c r="B46">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C39">
+      <c r="C46" s="14">
         <f t="shared" si="3"/>
         <v>145635.74827137974</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>31</v>
       </c>
-      <c r="B40">
+      <c r="B47">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="C47" s="14">
         <f t="shared" si="3"/>
         <v>150004.82071952114</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>32</v>
       </c>
-      <c r="B41">
+      <c r="B48">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="C41">
+      <c r="C48" s="14">
         <f t="shared" si="3"/>
         <v>154504.96534110678</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>33</v>
       </c>
-      <c r="B42">
+      <c r="B49">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="C42">
+      <c r="C49" s="14">
         <f t="shared" si="3"/>
         <v>159140.11430133999</v>
       </c>
@@ -37999,4 +38592,1436 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADB6C79-ABFA-4A2B-9286-E92D91681B05}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B3">
+        <f>YEAR(A3)</f>
+        <v>2021</v>
+      </c>
+      <c r="C3">
+        <f>MONTH(A3)</f>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>DAY(A3)</f>
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P3" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B4">
+        <f>YEAR(A4)</f>
+        <v>2021</v>
+      </c>
+      <c r="C4">
+        <f>MONTH(A4)</f>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f>DAY(A4)</f>
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P4" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>50040</v>
+      </c>
+      <c r="B5">
+        <f>YEAR(A5)</f>
+        <v>2036</v>
+      </c>
+      <c r="C5">
+        <f>MONTH(A5)</f>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f>DAY(A5)</f>
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P5" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>55518</v>
+      </c>
+      <c r="B6">
+        <f>YEAR(A6)</f>
+        <v>2051</v>
+      </c>
+      <c r="C6">
+        <f>MONTH(A6)</f>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>DAY(A6)</f>
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P6" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B7">
+        <f>YEAR(A7)</f>
+        <v>2021</v>
+      </c>
+      <c r="C7">
+        <f>MONTH(A7)</f>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f>DAY(A7)</f>
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B8">
+        <f>YEAR(A8)</f>
+        <v>2021</v>
+      </c>
+      <c r="C8">
+        <f>MONTH(A8)</f>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f>DAY(A8)</f>
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P8" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B9">
+        <f>YEAR(A9)</f>
+        <v>2021</v>
+      </c>
+      <c r="C9">
+        <f>MONTH(A9)</f>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f>DAY(A9)</f>
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P9" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B10">
+        <f>YEAR(A10)</f>
+        <v>2021</v>
+      </c>
+      <c r="C10">
+        <f>MONTH(A10)</f>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f>DAY(A10)</f>
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="20">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P10" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B11">
+        <f>YEAR(A11)</f>
+        <v>2021</v>
+      </c>
+      <c r="C11">
+        <f>MONTH(A11)</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>DAY(A11)</f>
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="20">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P11" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B12">
+        <f>YEAR(A12)</f>
+        <v>2021</v>
+      </c>
+      <c r="C12">
+        <f>MONTH(A12)</f>
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>DAY(A12)</f>
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="20">
+        <v>62</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P12" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B13">
+        <f>YEAR(A13)</f>
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <f>MONTH(A13)</f>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>DAY(A13)</f>
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="20">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P13" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B14">
+        <f>YEAR(A14)</f>
+        <v>2021</v>
+      </c>
+      <c r="C14">
+        <f>MONTH(A14)</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>DAY(A14)</f>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="20">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P14" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B15">
+        <f>YEAR(A15)</f>
+        <v>2021</v>
+      </c>
+      <c r="C15">
+        <f>MONTH(A15)</f>
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <f>DAY(A15)</f>
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="20">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B16">
+        <f>YEAR(A16)</f>
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <f>MONTH(A16)</f>
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f>DAY(A16)</f>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="20">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B17">
+        <f>YEAR(A17)</f>
+        <v>2021</v>
+      </c>
+      <c r="C17">
+        <f>MONTH(A17)</f>
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f>DAY(A17)</f>
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="20">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B18">
+        <f>YEAR(A18)</f>
+        <v>2021</v>
+      </c>
+      <c r="C18">
+        <f>MONTH(A18)</f>
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <f>DAY(A18)</f>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="20">
+        <v>62</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B19">
+        <f>YEAR(A19)</f>
+        <v>2021</v>
+      </c>
+      <c r="C19">
+        <f>MONTH(A19)</f>
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f>DAY(A19)</f>
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="20">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B20">
+        <f>YEAR(A20)</f>
+        <v>2021</v>
+      </c>
+      <c r="C20">
+        <f>MONTH(A20)</f>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <f>DAY(A20)</f>
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="20">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B21">
+        <f>YEAR(A21)</f>
+        <v>2021</v>
+      </c>
+      <c r="C21">
+        <f>MONTH(A21)</f>
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <f>DAY(A21)</f>
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="20">
+        <v>62</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B22">
+        <f>YEAR(A22)</f>
+        <v>2021</v>
+      </c>
+      <c r="C22">
+        <f>MONTH(A22)</f>
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f>DAY(A22)</f>
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="20">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="60" priority="40">
+      <formula>G3=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I9">
+    <cfRule type="expression" dxfId="59" priority="39">
+      <formula>G4=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="58" priority="38">
+      <formula>G10=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="57" priority="37">
+      <formula>G11=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="56" priority="36">
+      <formula>G3=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H14">
+    <cfRule type="expression" dxfId="55" priority="35">
+      <formula>G4=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="54" priority="34">
+      <formula>G12=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="53" priority="32">
+      <formula>G13=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="52" priority="30">
+      <formula>G14=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="51" priority="28">
+      <formula>G15=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="50" priority="27">
+      <formula>G15=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="49" priority="26">
+      <formula>G16=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="48" priority="25">
+      <formula>G16=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="47" priority="24">
+      <formula>G17=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="46" priority="23">
+      <formula>G17=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G17">
+    <cfRule type="expression" dxfId="45" priority="22">
+      <formula>B4&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:R17">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>J4&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>G18=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>G18=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:G18">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>B18&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:R18">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>J18&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>G19=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>G19=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:G19">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>B19&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:R19">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>J19&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>G20=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>G20=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:G20">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>B20&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:R20">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>J20&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>G21=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>G21=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:G21">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>B21&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:R21">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>J21&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>G22=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>G22=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:G22">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B22&lt;&gt;B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:R22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>J22&lt;&gt;J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L10" r:id="rId1" display="JLS@60%" xr:uid="{3EED1CDA-D8EC-4D7A-A5B4-9FDE53451255}"/>
+    <hyperlink ref="L11" r:id="rId2" display="JLS@60% garantie 5 ans 100%" xr:uid="{5A8C9089-00FA-4ED0-9D4E-DA7E1E5BC41D}"/>
+    <hyperlink ref="L12" r:id="rId3" display="JLS@60% garantie 5 ans 100%" xr:uid="{5B17D5A3-80DC-45D6-B982-2D7BE9BB8CAE}"/>
+    <hyperlink ref="L13" r:id="rId4" display="JLS@60% garantie 5 ans 100%" xr:uid="{67984C4F-EB6A-48E1-B4C4-97A9D86ED604}"/>
+    <hyperlink ref="L14" r:id="rId5" display="JLS@60% garantie 5 ans 100%" xr:uid="{2324C6EC-3F78-41F4-B01E-BF13DA478DF3}"/>
+    <hyperlink ref="L15" r:id="rId6" display="JLS@60% garantie 5 ans 100%" xr:uid="{F5A63BFE-6AB4-46BA-B25C-2A7C012E5A4A}"/>
+    <hyperlink ref="L16" r:id="rId7" display="JLS@60% garantie 5 ans 100%" xr:uid="{052E0CC6-B90A-4474-99DE-3467DC0BDCB5}"/>
+    <hyperlink ref="L17" r:id="rId8" display="JLS@60% garantie 5 ans 100%" xr:uid="{9E4A8FCC-57CD-411B-B8F9-99BD16B11E93}"/>
+    <hyperlink ref="L18" r:id="rId9" display="JLS@60% garantie 5 ans 100%" xr:uid="{33E94E06-2CE2-47A4-93D5-F91D8FFCA56F}"/>
+    <hyperlink ref="L19" r:id="rId10" display="JLS@60% garantie 5 ans 100%" xr:uid="{4DD3AC80-4941-481A-8077-7A5FEA4501A8}"/>
+    <hyperlink ref="L20" r:id="rId11" display="JLS@60% garantie 5 ans 100%" xr:uid="{9C8448B3-ABAF-43E0-98A4-CED800769954}"/>
+    <hyperlink ref="L21" r:id="rId12" display="JLS@60% garantie 5 ans 100%" xr:uid="{8B157C17-4E14-4125-BC4D-9161EDC6975A}"/>
+    <hyperlink ref="L22" r:id="rId13" display="JLS@60% garantie 5 ans 100%" xr:uid="{11955811-21A8-4033-A4F9-5B9937BEE97B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
+</worksheet>
 </file>